--- a/Excel/ItemConfig@cs.xlsx
+++ b/Excel/ItemConfig@cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6A14D-D7CD-4952-87FB-3D9BE62D9B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99CC4F1-D492-4BE7-B4D4-928A630D1882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -100,13 +100,6 @@
   </si>
   <si>
     <t>m1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, //武器
-1, //防具
-2, //戒指
-3, //道具</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -236,6 +229,60 @@
   </si>
   <si>
     <t>SellBasePrice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, //武器
+1, //防具
+2, //戒指
+3, //道具
+4,//头盔
+5,//衣服
+6,//鞋子
+7,//盾牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔2</t>
+  </si>
+  <si>
+    <t>头盔3</t>
+  </si>
+  <si>
+    <t>头盔4</t>
+  </si>
+  <si>
+    <t>头盔5</t>
+  </si>
+  <si>
+    <t>头盔6</t>
+  </si>
+  <si>
+    <t>BattleguardHelm (Type=Helmet, Collection=AbandonedWorkshop)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkMountain [Paint] (Type=Helmet, Collection=Thrones)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HawkHelm (Type=Helmet, Collection=Basic)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KnightHelm [Paint] (Type=Helmet, Collection=Basic)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManticoreHelmet (Type=Helmet, Collection=Pro)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoutHelm (Type=Helmet, Collection=Basic)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -620,31 +667,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K22"/>
+  <dimension ref="C1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="2" customWidth="1"/>
     <col min="6" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="12.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.33203125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F1" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>7</v>
@@ -661,22 +708,22 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
@@ -687,25 +734,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
@@ -742,10 +789,10 @@
         <v>1002</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -754,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -783,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -812,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -832,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -841,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -870,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -899,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -928,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -957,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -986,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -1015,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -1044,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -1073,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -1090,10 +1137,10 @@
         <v>1014</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
@@ -1119,10 +1166,10 @@
         <v>1015</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="4">
         <v>3</v>
@@ -1131,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="2">
         <v>99</v>
@@ -1148,10 +1195,10 @@
         <v>1016</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
@@ -1160,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="2">
         <v>99</v>
@@ -1177,10 +1224,10 @@
         <v>1017</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
@@ -1189,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="2">
         <v>99</v>
@@ -1206,10 +1253,10 @@
         <v>1018</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="4">
         <v>3</v>
@@ -1218,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2">
         <v>99</v>
@@ -1227,6 +1274,180 @@
         <v>1</v>
       </c>
       <c r="K22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4">
+        <v>1019</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4">
+        <v>1020</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4">
+        <v>1021</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
+        <v>1022</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <v>1023</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="4">
+        <v>1024</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
         <v>100</v>
       </c>
     </row>
